--- a/FOF/data/债券基金收益率分解.xlsx
+++ b/FOF/data/债券基金收益率分解.xlsx
@@ -1,25 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\zjsxzy_in_js\FOF\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>信用</t>
-  </si>
-  <si>
-    <t>利率</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>基金名称</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>7-10</t>
+  </si>
+  <si>
+    <t>久期</t>
   </si>
   <si>
     <t>基金代码</t>
@@ -38,17 +58,47 @@
   </si>
   <si>
     <t>000147.OF</t>
+  </si>
+  <si>
+    <t>003358.OF</t>
+  </si>
+  <si>
+    <t>070009.OF</t>
+  </si>
+  <si>
+    <t>嘉实稳祥纯债A</t>
+  </si>
+  <si>
+    <t>嘉实稳华纯债</t>
+  </si>
+  <si>
+    <t>嘉实纯债A</t>
+  </si>
+  <si>
+    <t>交银双轮动AB</t>
+  </si>
+  <si>
+    <t>易方达高等级信用债A</t>
+  </si>
+  <si>
+    <t>易方达7-10年国开行</t>
+  </si>
+  <si>
+    <t>嘉实超短债</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -56,8 +106,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -93,25 +157,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +269,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +304,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,80 +480,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="9" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.29892919065965939</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.27104051296661258</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.20644682295483141</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.12437038149575511</v>
+      </c>
+      <c r="G2" s="3">
+        <v>9.9213091923141622E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3.0572599374420442</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.7256792088321347</v>
-      </c>
-      <c r="C3">
-        <v>0.2743207911678655</v>
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.47200713070223788</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.32009305467201898</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7.8062556418956319E-18</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-2.424547108220709E-17</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.2078998146257432</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2.5393881917011019</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.41114352159684581</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.35720523803013948</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.23165124037301471</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.8973326260259511E-17</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.8465871983507609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.31459299052048639</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.29417762746944592</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.2004506686482059</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.1111861222951067</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7.9592591066754856E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.8513118870966379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.37912507713819771</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.33893811428257009</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.28193680857923209</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.778769189234031E-19</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.995186001451168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-5.3251351780734338E-17</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.4307923738318489E-17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-1.265848991851806E-16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>-8.673617379884035e-18</v>
+      <c r="H7" s="5">
+        <v>8.0000000000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.6733423559187363</v>
-      </c>
-      <c r="C5">
-        <v>0.3266576440812639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.46110165414697341</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.360511937318644</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.17838640853438251</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.775557561562891E-17</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.1093237969000211E-17</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.6651203358483051</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>